--- a/data/pca/factorExposure/factorExposure_2016-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008977480505163976</v>
+        <v>0.01228283738275993</v>
       </c>
       <c r="C2">
-        <v>-0.05637515569127381</v>
+        <v>0.03975755523413749</v>
       </c>
       <c r="D2">
-        <v>-0.04281619194276878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05553353767647277</v>
+      </c>
+      <c r="E2">
+        <v>0.08626976210048158</v>
+      </c>
+      <c r="F2">
+        <v>-0.08325993251785951</v>
+      </c>
+      <c r="G2">
+        <v>-0.03369171230907981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03987220120316948</v>
+        <v>0.02483586838302173</v>
       </c>
       <c r="C3">
-        <v>-0.1206200846436391</v>
+        <v>0.0673654064221119</v>
       </c>
       <c r="D3">
-        <v>-0.09059386541780561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07347382256249749</v>
+      </c>
+      <c r="E3">
+        <v>0.06930069259790983</v>
+      </c>
+      <c r="F3">
+        <v>0.02576166636185009</v>
+      </c>
+      <c r="G3">
+        <v>-0.05342740183268263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06081367399402254</v>
+        <v>0.05894209112637978</v>
       </c>
       <c r="C4">
-        <v>-0.06078450579168191</v>
+        <v>0.06339955504723269</v>
       </c>
       <c r="D4">
-        <v>-0.02488752157827902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0494199372935095</v>
+      </c>
+      <c r="E4">
+        <v>0.08686222477186495</v>
+      </c>
+      <c r="F4">
+        <v>-0.04457700647137576</v>
+      </c>
+      <c r="G4">
+        <v>-0.09676088838139699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03962177470259291</v>
+        <v>0.03497042701046389</v>
       </c>
       <c r="C6">
-        <v>-0.03661295440905397</v>
+        <v>0.02750727265555964</v>
       </c>
       <c r="D6">
-        <v>-0.02699710682538991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05730019385851729</v>
+      </c>
+      <c r="E6">
+        <v>0.08598421783865218</v>
+      </c>
+      <c r="F6">
+        <v>-0.02977073620366606</v>
+      </c>
+      <c r="G6">
+        <v>-0.07051695383286889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02536455743408203</v>
+        <v>0.02013749841085999</v>
       </c>
       <c r="C7">
-        <v>-0.04271570040764111</v>
+        <v>0.03678823193446307</v>
       </c>
       <c r="D7">
-        <v>0.003816886662340125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03621343865640133</v>
+      </c>
+      <c r="E7">
+        <v>0.06301800873802479</v>
+      </c>
+      <c r="F7">
+        <v>-0.07233051912519912</v>
+      </c>
+      <c r="G7">
+        <v>-0.096791787177943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006205833576332417</v>
+        <v>0.004323288305270204</v>
       </c>
       <c r="C8">
-        <v>-0.03658154920032424</v>
+        <v>0.0323703118726158</v>
       </c>
       <c r="D8">
-        <v>-0.02796949757746679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03128003878512033</v>
+      </c>
+      <c r="E8">
+        <v>0.05905280564124984</v>
+      </c>
+      <c r="F8">
+        <v>-0.02086207497241275</v>
+      </c>
+      <c r="G8">
+        <v>-0.0421171738739268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03449651327151091</v>
+        <v>0.03793594665303624</v>
       </c>
       <c r="C9">
-        <v>-0.04767581273358064</v>
+        <v>0.0507381751947328</v>
       </c>
       <c r="D9">
-        <v>-0.009412808904569289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0347500455521216</v>
+      </c>
+      <c r="E9">
+        <v>0.07175835263757713</v>
+      </c>
+      <c r="F9">
+        <v>-0.05676835926491088</v>
+      </c>
+      <c r="G9">
+        <v>-0.08888595205677496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07382115185391613</v>
+        <v>0.09989719967097944</v>
       </c>
       <c r="C10">
-        <v>0.1876127540488027</v>
+        <v>-0.1972769738906099</v>
       </c>
       <c r="D10">
-        <v>0.006465000043498762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01384043869053893</v>
+      </c>
+      <c r="E10">
+        <v>0.03769164387611205</v>
+      </c>
+      <c r="F10">
+        <v>-0.01869011129138365</v>
+      </c>
+      <c r="G10">
+        <v>-0.03173215968282897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04214954678717459</v>
+        <v>0.03744932910719804</v>
       </c>
       <c r="C11">
-        <v>-0.05061263618846877</v>
+        <v>0.04735796039783949</v>
       </c>
       <c r="D11">
-        <v>-0.01165414599268497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03031606451769171</v>
+      </c>
+      <c r="E11">
+        <v>0.025862143069306</v>
+      </c>
+      <c r="F11">
+        <v>-0.04284227790923843</v>
+      </c>
+      <c r="G11">
+        <v>-0.07056833222056881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04458745046257</v>
+        <v>0.03956403648856181</v>
       </c>
       <c r="C12">
-        <v>-0.04643974744266016</v>
+        <v>0.04515393487260529</v>
       </c>
       <c r="D12">
-        <v>-0.002241953754780735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02543860158104407</v>
+      </c>
+      <c r="E12">
+        <v>0.03349918965503728</v>
+      </c>
+      <c r="F12">
+        <v>-0.04513356030670063</v>
+      </c>
+      <c r="G12">
+        <v>-0.06755666172654536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01294924014626679</v>
+        <v>0.01096985953787102</v>
       </c>
       <c r="C13">
-        <v>-0.05459420760952263</v>
+        <v>0.04212868311045086</v>
       </c>
       <c r="D13">
-        <v>-0.00709758216641015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03978722484243855</v>
+      </c>
+      <c r="E13">
+        <v>0.0988050081387503</v>
+      </c>
+      <c r="F13">
+        <v>-0.06376156131271479</v>
+      </c>
+      <c r="G13">
+        <v>-0.09840504293750917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008720444198733386</v>
+        <v>0.00505992792471364</v>
       </c>
       <c r="C14">
-        <v>-0.04201891296962189</v>
+        <v>0.03310647928199981</v>
       </c>
       <c r="D14">
-        <v>0.009510689722140768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02243484885686696</v>
+      </c>
+      <c r="E14">
+        <v>0.04819870370047052</v>
+      </c>
+      <c r="F14">
+        <v>-0.07848927766720412</v>
+      </c>
+      <c r="G14">
+        <v>-0.08133714295427745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00017229526041594</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005495389259462336</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007046336235590317</v>
+      </c>
+      <c r="E15">
+        <v>0.004447912278159183</v>
+      </c>
+      <c r="F15">
+        <v>-0.006474177437168968</v>
+      </c>
+      <c r="G15">
+        <v>-0.007607883978836094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03910826272894177</v>
+        <v>0.03497367048519757</v>
       </c>
       <c r="C16">
-        <v>-0.04911818617555736</v>
+        <v>0.04471462814598334</v>
       </c>
       <c r="D16">
-        <v>-0.005011280873448163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02404837462886025</v>
+      </c>
+      <c r="E16">
+        <v>0.04003377663459329</v>
+      </c>
+      <c r="F16">
+        <v>-0.05272473886068203</v>
+      </c>
+      <c r="G16">
+        <v>-0.05815514062391046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02446137948788428</v>
+        <v>0.01802666483814815</v>
       </c>
       <c r="C19">
-        <v>-0.06057850267758843</v>
+        <v>0.0437221248757363</v>
       </c>
       <c r="D19">
-        <v>-0.08961690991539498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08967413306602744</v>
+      </c>
+      <c r="E19">
+        <v>0.1108161120330001</v>
+      </c>
+      <c r="F19">
+        <v>-0.06708454598424546</v>
+      </c>
+      <c r="G19">
+        <v>-0.05018265971618561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0173778013123685</v>
+        <v>0.01399907596305177</v>
       </c>
       <c r="C20">
-        <v>-0.04762574733083261</v>
+        <v>0.03888423740515995</v>
       </c>
       <c r="D20">
-        <v>-0.008949471832555385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02992311795539488</v>
+      </c>
+      <c r="E20">
+        <v>0.07574518043473545</v>
+      </c>
+      <c r="F20">
+        <v>-0.05398778183928326</v>
+      </c>
+      <c r="G20">
+        <v>-0.07089472012861288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01166449583574799</v>
+        <v>0.01026955565155712</v>
       </c>
       <c r="C21">
-        <v>-0.0512321359320994</v>
+        <v>0.04094239700439262</v>
       </c>
       <c r="D21">
-        <v>-0.03521543780478659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05460884997466585</v>
+      </c>
+      <c r="E21">
+        <v>0.1183309479683894</v>
+      </c>
+      <c r="F21">
+        <v>-0.08933140782927554</v>
+      </c>
+      <c r="G21">
+        <v>-0.10792455706498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001866243221319254</v>
+        <v>0.002930069704142772</v>
       </c>
       <c r="C22">
-        <v>-0.001377242619865206</v>
+        <v>0.02687051189275654</v>
       </c>
       <c r="D22">
-        <v>-0.004566974125664254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0421177819752486</v>
+      </c>
+      <c r="E22">
+        <v>0.04333578259098485</v>
+      </c>
+      <c r="F22">
+        <v>0.01055023355496323</v>
+      </c>
+      <c r="G22">
+        <v>-0.05775721243989586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001872039231544189</v>
+        <v>0.003016359703937411</v>
       </c>
       <c r="C23">
-        <v>-0.001377868487101217</v>
+        <v>0.02701038036929077</v>
       </c>
       <c r="D23">
-        <v>-0.004571612421487214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04166918577747613</v>
+      </c>
+      <c r="E23">
+        <v>0.04359367760226402</v>
+      </c>
+      <c r="F23">
+        <v>0.01083259281472175</v>
+      </c>
+      <c r="G23">
+        <v>-0.05774639990284221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03593372578554217</v>
+        <v>0.03519553454530915</v>
       </c>
       <c r="C24">
-        <v>-0.04995997989877539</v>
+        <v>0.05198467705899393</v>
       </c>
       <c r="D24">
-        <v>-0.007198343603604738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0235474596840856</v>
+      </c>
+      <c r="E24">
+        <v>0.0414572050949397</v>
+      </c>
+      <c r="F24">
+        <v>-0.05420439389926833</v>
+      </c>
+      <c r="G24">
+        <v>-0.07109363467938873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04913500557274064</v>
+        <v>0.04430502246664354</v>
       </c>
       <c r="C25">
-        <v>-0.06040904456370082</v>
+        <v>0.05577415519607274</v>
       </c>
       <c r="D25">
-        <v>0.005327892210531423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02175445120352632</v>
+      </c>
+      <c r="E25">
+        <v>0.03164621905586077</v>
+      </c>
+      <c r="F25">
+        <v>-0.04544707154785918</v>
+      </c>
+      <c r="G25">
+        <v>-0.08149634548734179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01678884583037092</v>
+        <v>0.01517291348709261</v>
       </c>
       <c r="C26">
-        <v>-0.01726613582945068</v>
+        <v>0.01702242062308151</v>
       </c>
       <c r="D26">
-        <v>0.0003937439739105154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02276417772638775</v>
+      </c>
+      <c r="E26">
+        <v>0.05160674633703967</v>
+      </c>
+      <c r="F26">
+        <v>-0.0610464363945571</v>
+      </c>
+      <c r="G26">
+        <v>-0.0511283904768139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08949796898293819</v>
+        <v>0.1360263348235695</v>
       </c>
       <c r="C28">
-        <v>0.2467087416323346</v>
+        <v>-0.2538599400051947</v>
       </c>
       <c r="D28">
-        <v>0.006250297279259456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02886335790897824</v>
+      </c>
+      <c r="E28">
+        <v>0.05558371168629187</v>
+      </c>
+      <c r="F28">
+        <v>-0.0256829471274951</v>
+      </c>
+      <c r="G28">
+        <v>-0.04969929579041595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007425741004840488</v>
+        <v>0.00553592546474016</v>
       </c>
       <c r="C29">
-        <v>-0.03406156108596438</v>
+        <v>0.02969894910739878</v>
       </c>
       <c r="D29">
-        <v>0.01682470066353637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0144603023360148</v>
+      </c>
+      <c r="E29">
+        <v>0.04688440175345295</v>
+      </c>
+      <c r="F29">
+        <v>-0.06752236825708419</v>
+      </c>
+      <c r="G29">
+        <v>-0.08591784923826343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.045653600551635</v>
+        <v>0.04202802245674026</v>
       </c>
       <c r="C30">
-        <v>-0.05268075707445474</v>
+        <v>0.05581574215205272</v>
       </c>
       <c r="D30">
-        <v>-0.07010554032872328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09830347840650414</v>
+      </c>
+      <c r="E30">
+        <v>0.07771480074827795</v>
+      </c>
+      <c r="F30">
+        <v>-0.07566821460847666</v>
+      </c>
+      <c r="G30">
+        <v>-0.07196909874481389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05906529829215049</v>
+        <v>0.05771912775065594</v>
       </c>
       <c r="C31">
-        <v>-0.04472471164187215</v>
+        <v>0.06084544982533789</v>
       </c>
       <c r="D31">
-        <v>0.03939741023962554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0187774619082674</v>
+      </c>
+      <c r="E31">
+        <v>0.06644423396556785</v>
+      </c>
+      <c r="F31">
+        <v>-0.02873045331751713</v>
+      </c>
+      <c r="G31">
+        <v>-0.0877422010792948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001766444702018285</v>
+        <v>0.004305771536395882</v>
       </c>
       <c r="C32">
-        <v>-0.04666706128565843</v>
+        <v>0.03619625638451281</v>
       </c>
       <c r="D32">
-        <v>-0.04816734710542434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0530740434430025</v>
+      </c>
+      <c r="E32">
+        <v>0.05459857444976438</v>
+      </c>
+      <c r="F32">
+        <v>-0.06971183755402113</v>
+      </c>
+      <c r="G32">
+        <v>-0.06649004106422726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.031403791194651</v>
+        <v>0.02662286231512657</v>
       </c>
       <c r="C33">
-        <v>-0.05955143505611274</v>
+        <v>0.05280159570537752</v>
       </c>
       <c r="D33">
-        <v>-0.03512738205739029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06673874101391029</v>
+      </c>
+      <c r="E33">
+        <v>0.08951252437634132</v>
+      </c>
+      <c r="F33">
+        <v>-0.07460780811549739</v>
+      </c>
+      <c r="G33">
+        <v>-0.1013985250922193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04619673941058648</v>
+        <v>0.04149120100353454</v>
       </c>
       <c r="C34">
-        <v>-0.06544553869705538</v>
+        <v>0.06330219789785242</v>
       </c>
       <c r="D34">
-        <v>-0.01412489173493684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0366955604307693</v>
+      </c>
+      <c r="E34">
+        <v>0.01502065685259628</v>
+      </c>
+      <c r="F34">
+        <v>-0.056515654781513</v>
+      </c>
+      <c r="G34">
+        <v>-0.07219069160486645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01654030433433295</v>
+        <v>0.01438849465051409</v>
       </c>
       <c r="C36">
-        <v>-0.0169646755098321</v>
+        <v>0.0132216325061098</v>
       </c>
       <c r="D36">
-        <v>0.005170289104977357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02093698109130276</v>
+      </c>
+      <c r="E36">
+        <v>0.05860428664064864</v>
+      </c>
+      <c r="F36">
+        <v>-0.05207333210457599</v>
+      </c>
+      <c r="G36">
+        <v>-0.06962532073394825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02914191576919636</v>
+        <v>0.02305925174058821</v>
       </c>
       <c r="C38">
-        <v>-0.03091693843946832</v>
+        <v>0.02349037852007823</v>
       </c>
       <c r="D38">
-        <v>0.01739419621559865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01839354724862896</v>
+      </c>
+      <c r="E38">
+        <v>0.05060560011207745</v>
+      </c>
+      <c r="F38">
+        <v>-0.04583911666137839</v>
+      </c>
+      <c r="G38">
+        <v>-0.05021035340575919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04698436276694835</v>
+        <v>0.0408712541020079</v>
       </c>
       <c r="C39">
-        <v>-0.06298426626537108</v>
+        <v>0.06276351992887831</v>
       </c>
       <c r="D39">
-        <v>-0.01568921903466715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0483376039102474</v>
+      </c>
+      <c r="E39">
+        <v>0.04785385389905041</v>
+      </c>
+      <c r="F39">
+        <v>-0.07686651612705167</v>
+      </c>
+      <c r="G39">
+        <v>-0.06668355032129675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01128748917247401</v>
+        <v>0.01348980010021329</v>
       </c>
       <c r="C40">
-        <v>-0.05024864645876563</v>
+        <v>0.03706664503816604</v>
       </c>
       <c r="D40">
-        <v>-0.01871289486633165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0261218641796093</v>
+      </c>
+      <c r="E40">
+        <v>0.08400960751767401</v>
+      </c>
+      <c r="F40">
+        <v>-0.03864039742668497</v>
+      </c>
+      <c r="G40">
+        <v>-0.1088613543736479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02173626498496625</v>
+        <v>0.01863514405306567</v>
       </c>
       <c r="C41">
-        <v>-0.01491199783639105</v>
+        <v>0.01070130163706088</v>
       </c>
       <c r="D41">
-        <v>2.998458607131055e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01311005275584651</v>
+      </c>
+      <c r="E41">
+        <v>0.06038448155722381</v>
+      </c>
+      <c r="F41">
+        <v>-0.04765712563078227</v>
+      </c>
+      <c r="G41">
+        <v>-0.05584439178528865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04111785701383242</v>
+        <v>0.0297185642234235</v>
       </c>
       <c r="C43">
-        <v>-0.03270243374164305</v>
+        <v>0.02412162477161032</v>
       </c>
       <c r="D43">
-        <v>-0.02655848191807997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04229454638837756</v>
+      </c>
+      <c r="E43">
+        <v>0.07701093872982745</v>
+      </c>
+      <c r="F43">
+        <v>-0.04240031663536289</v>
+      </c>
+      <c r="G43">
+        <v>-0.08524743556562391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01352899253752399</v>
+        <v>0.01503096061404113</v>
       </c>
       <c r="C44">
-        <v>-0.06694129530368868</v>
+        <v>0.04747927039132403</v>
       </c>
       <c r="D44">
-        <v>-0.01095962826595726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0310221093210649</v>
+      </c>
+      <c r="E44">
+        <v>0.08481603975002104</v>
+      </c>
+      <c r="F44">
+        <v>-0.06144532436099654</v>
+      </c>
+      <c r="G44">
+        <v>-0.05260623810081663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009310710489627413</v>
+        <v>0.009616122861852679</v>
       </c>
       <c r="C46">
-        <v>-0.02972042897705614</v>
+        <v>0.02976976216320463</v>
       </c>
       <c r="D46">
-        <v>0.01671150137633655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009184608774139822</v>
+      </c>
+      <c r="E46">
+        <v>0.05662571253620354</v>
+      </c>
+      <c r="F46">
+        <v>-0.0802065735319536</v>
+      </c>
+      <c r="G46">
+        <v>-0.08656796907663537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08707061565315276</v>
+        <v>0.09008585817081442</v>
       </c>
       <c r="C47">
-        <v>-0.0706870097998591</v>
+        <v>0.08069178041252711</v>
       </c>
       <c r="D47">
-        <v>0.0381095343435818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02576079954172249</v>
+      </c>
+      <c r="E47">
+        <v>0.06783971673738975</v>
+      </c>
+      <c r="F47">
+        <v>-0.02450486007883541</v>
+      </c>
+      <c r="G47">
+        <v>-0.07569405329324667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01922018301176251</v>
+        <v>0.01741010512581145</v>
       </c>
       <c r="C48">
-        <v>-0.0139410833888953</v>
+        <v>0.01545380078935788</v>
       </c>
       <c r="D48">
-        <v>0.02048783767331767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008452572212053514</v>
+      </c>
+      <c r="E48">
+        <v>0.06965578757546469</v>
+      </c>
+      <c r="F48">
+        <v>-0.06622766950724872</v>
+      </c>
+      <c r="G48">
+        <v>-0.07863054151359226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08202024580627384</v>
+        <v>0.07092288650121849</v>
       </c>
       <c r="C50">
-        <v>-0.08260808046807896</v>
+        <v>0.07534363957956598</v>
       </c>
       <c r="D50">
-        <v>0.03954771498970196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01064887747351115</v>
+      </c>
+      <c r="E50">
+        <v>0.07450785135895434</v>
+      </c>
+      <c r="F50">
+        <v>-0.0003934105129757752</v>
+      </c>
+      <c r="G50">
+        <v>-0.09794014842999181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01712937609440437</v>
+        <v>0.01068852923612806</v>
       </c>
       <c r="C51">
-        <v>-0.04879224123029188</v>
+        <v>0.0315914057703058</v>
       </c>
       <c r="D51">
-        <v>-0.03705671649776351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05378055522461385</v>
+      </c>
+      <c r="E51">
+        <v>0.0484713494156495</v>
+      </c>
+      <c r="F51">
+        <v>-0.07004534431686232</v>
+      </c>
+      <c r="G51">
+        <v>-0.06474894534459616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08369494477168145</v>
+        <v>0.09632550351730622</v>
       </c>
       <c r="C53">
-        <v>-0.07583381476773243</v>
+        <v>0.08515320526530612</v>
       </c>
       <c r="D53">
-        <v>0.06073582396731874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06202653542866775</v>
+      </c>
+      <c r="E53">
+        <v>0.06012628326338754</v>
+      </c>
+      <c r="F53">
+        <v>-0.02266213608742043</v>
+      </c>
+      <c r="G53">
+        <v>-0.07321625456386614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03433312481976979</v>
+        <v>0.02805510347970482</v>
       </c>
       <c r="C54">
-        <v>-0.0390786688531386</v>
+        <v>0.03325154156281717</v>
       </c>
       <c r="D54">
-        <v>0.004349535851874611</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0219249974117591</v>
+      </c>
+      <c r="E54">
+        <v>0.05708828473999436</v>
+      </c>
+      <c r="F54">
+        <v>-0.07153277171403061</v>
+      </c>
+      <c r="G54">
+        <v>-0.0832166199302703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07793417496559972</v>
+        <v>0.08826253390164381</v>
       </c>
       <c r="C55">
-        <v>-0.05437607428101773</v>
+        <v>0.06761716568095939</v>
       </c>
       <c r="D55">
-        <v>0.066549082002872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06324515278505849</v>
+      </c>
+      <c r="E55">
+        <v>0.04086848323789365</v>
+      </c>
+      <c r="F55">
+        <v>-0.008872704124812333</v>
+      </c>
+      <c r="G55">
+        <v>-0.05401815202527122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1504612783370407</v>
+        <v>0.1523247112616057</v>
       </c>
       <c r="C56">
-        <v>-0.08734542764688624</v>
+        <v>0.1029371052269373</v>
       </c>
       <c r="D56">
-        <v>0.05462373116276047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05659650949657734</v>
+      </c>
+      <c r="E56">
+        <v>0.04109272456884879</v>
+      </c>
+      <c r="F56">
+        <v>0.0153104653281755</v>
+      </c>
+      <c r="G56">
+        <v>-0.02267125382035178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03864346548199217</v>
+        <v>0.02372413432402127</v>
       </c>
       <c r="C58">
-        <v>-0.03785709302349562</v>
+        <v>0.02820468194577419</v>
       </c>
       <c r="D58">
-        <v>-0.6496418523370702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3735176141578634</v>
+      </c>
+      <c r="E58">
+        <v>0.6640845020992472</v>
+      </c>
+      <c r="F58">
+        <v>0.408339258534307</v>
+      </c>
+      <c r="G58">
+        <v>0.4272309536607503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1281096405955835</v>
+        <v>0.1426829491410025</v>
       </c>
       <c r="C59">
-        <v>0.1986175763439696</v>
+        <v>-0.1891858793033842</v>
       </c>
       <c r="D59">
-        <v>-0.02687569644646984</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02791054352275643</v>
+      </c>
+      <c r="E59">
+        <v>0.03078958688634124</v>
+      </c>
+      <c r="F59">
+        <v>-0.03470128030299136</v>
+      </c>
+      <c r="G59">
+        <v>0.01102657907029701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3071342366546231</v>
+        <v>0.2770888824291975</v>
       </c>
       <c r="C60">
-        <v>-0.1077273148654887</v>
+        <v>0.1077916752454926</v>
       </c>
       <c r="D60">
-        <v>-0.1708506992616046</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2649666120640862</v>
+      </c>
+      <c r="E60">
+        <v>-0.239471077182824</v>
+      </c>
+      <c r="F60">
+        <v>0.0823628416705169</v>
+      </c>
+      <c r="G60">
+        <v>-0.03232818635232335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04520485268830206</v>
+        <v>0.04219856991525218</v>
       </c>
       <c r="C61">
-        <v>-0.06267007348038715</v>
+        <v>0.05929992018371246</v>
       </c>
       <c r="D61">
-        <v>-0.01188855331360304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04011016027038979</v>
+      </c>
+      <c r="E61">
+        <v>0.05003942234754014</v>
+      </c>
+      <c r="F61">
+        <v>-0.05618987953447967</v>
+      </c>
+      <c r="G61">
+        <v>-0.07997221047819307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01723892836176829</v>
+        <v>0.0158242501206984</v>
       </c>
       <c r="C63">
-        <v>-0.03325743858633827</v>
+        <v>0.0307666972050988</v>
       </c>
       <c r="D63">
-        <v>0.02055226989415155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01400770232552888</v>
+      </c>
+      <c r="E63">
+        <v>0.06186538780172528</v>
+      </c>
+      <c r="F63">
+        <v>-0.03730124612438255</v>
+      </c>
+      <c r="G63">
+        <v>-0.07814950369167049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05150753013730257</v>
+        <v>0.0566941189464706</v>
       </c>
       <c r="C64">
-        <v>-0.04539869521015978</v>
+        <v>0.05610366992683722</v>
       </c>
       <c r="D64">
-        <v>-0.0007466331128845624</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004060899352217768</v>
+      </c>
+      <c r="E64">
+        <v>0.0350455576832598</v>
+      </c>
+      <c r="F64">
+        <v>-0.05847229800275158</v>
+      </c>
+      <c r="G64">
+        <v>-0.06546477941622611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08057266336263039</v>
+        <v>0.0651903640244588</v>
       </c>
       <c r="C65">
-        <v>-0.03133271947967343</v>
+        <v>0.02871904603392585</v>
       </c>
       <c r="D65">
-        <v>-0.05855541942234999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08558565137388104</v>
+      </c>
+      <c r="E65">
+        <v>0.05474386066838141</v>
+      </c>
+      <c r="F65">
+        <v>-0.006109820905311476</v>
+      </c>
+      <c r="G65">
+        <v>-0.02410660537726388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06243870038614981</v>
+        <v>0.05303349402537424</v>
       </c>
       <c r="C66">
-        <v>-0.08589330663432448</v>
+        <v>0.07992821383876562</v>
       </c>
       <c r="D66">
-        <v>-0.03523040176218869</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07235768075301384</v>
+      </c>
+      <c r="E66">
+        <v>0.0568042159492234</v>
+      </c>
+      <c r="F66">
+        <v>-0.06906092638191803</v>
+      </c>
+      <c r="G66">
+        <v>-0.08273592555778946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05129942307802453</v>
+        <v>0.04475954469830103</v>
       </c>
       <c r="C67">
-        <v>-0.03104146963358079</v>
+        <v>0.02827082615509888</v>
       </c>
       <c r="D67">
-        <v>0.02458368095022215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003211646291234794</v>
+      </c>
+      <c r="E67">
+        <v>0.02735481831707488</v>
+      </c>
+      <c r="F67">
+        <v>-0.03263825048206982</v>
+      </c>
+      <c r="G67">
+        <v>-0.03972977854372774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1256711739111717</v>
+        <v>0.1493353737672742</v>
       </c>
       <c r="C68">
-        <v>0.2809119462199816</v>
+        <v>-0.2449500661993163</v>
       </c>
       <c r="D68">
-        <v>0.003580039190409456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01562768263233644</v>
+      </c>
+      <c r="E68">
+        <v>0.03782596762891683</v>
+      </c>
+      <c r="F68">
+        <v>-0.003765694236554453</v>
+      </c>
+      <c r="G68">
+        <v>-0.03339557938201054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09206221178980575</v>
+        <v>0.08733096183915164</v>
       </c>
       <c r="C69">
-        <v>-0.07231951990577344</v>
+        <v>0.08975978297312208</v>
       </c>
       <c r="D69">
-        <v>0.05039054471176221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01841032829420621</v>
+      </c>
+      <c r="E69">
+        <v>0.0554197593292756</v>
+      </c>
+      <c r="F69">
+        <v>-0.05848064598330126</v>
+      </c>
+      <c r="G69">
+        <v>-0.08144126232084864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1154044610315006</v>
+        <v>0.1429811005120686</v>
       </c>
       <c r="C71">
-        <v>0.2557830720865134</v>
+        <v>-0.2421085441312475</v>
       </c>
       <c r="D71">
-        <v>-0.01707370247889523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001417469755278612</v>
+      </c>
+      <c r="E71">
+        <v>0.0577336942934934</v>
+      </c>
+      <c r="F71">
+        <v>-0.01179511637842003</v>
+      </c>
+      <c r="G71">
+        <v>-0.05939547169476941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09491681012732797</v>
+        <v>0.1013700170186884</v>
       </c>
       <c r="C72">
-        <v>-0.05268806965969956</v>
+        <v>0.05701390374447129</v>
       </c>
       <c r="D72">
-        <v>-0.003543340088226517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02841155800392852</v>
+      </c>
+      <c r="E72">
+        <v>0.02448264619834416</v>
+      </c>
+      <c r="F72">
+        <v>-0.03086051067658221</v>
+      </c>
+      <c r="G72">
+        <v>-0.07794756347989865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3996032859264481</v>
+        <v>0.3379817471977792</v>
       </c>
       <c r="C73">
-        <v>-0.04402356748484696</v>
+        <v>0.06985345572525477</v>
       </c>
       <c r="D73">
-        <v>-0.4204096704158038</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.52777506953951</v>
+      </c>
+      <c r="E73">
+        <v>-0.4339967719890692</v>
+      </c>
+      <c r="F73">
+        <v>0.2363977082606138</v>
+      </c>
+      <c r="G73">
+        <v>-0.0002618497228491252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1044573695422528</v>
+        <v>0.1096458518252513</v>
       </c>
       <c r="C74">
-        <v>-0.094934757024055</v>
+        <v>0.09418937032551498</v>
       </c>
       <c r="D74">
-        <v>0.04139558138102342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04978473665516858</v>
+      </c>
+      <c r="E74">
+        <v>0.0616595203314813</v>
+      </c>
+      <c r="F74">
+        <v>0.01727589677841878</v>
+      </c>
+      <c r="G74">
+        <v>-0.05367833252568747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2589053886683143</v>
+        <v>0.2612501766199662</v>
       </c>
       <c r="C75">
-        <v>-0.09529801187601811</v>
+        <v>0.1267671279341117</v>
       </c>
       <c r="D75">
-        <v>0.1305170417206377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1508821552596266</v>
+      </c>
+      <c r="E75">
+        <v>0.02861387510154767</v>
+      </c>
+      <c r="F75">
+        <v>0.06457226061303925</v>
+      </c>
+      <c r="G75">
+        <v>0.04760430330479611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1152587929598647</v>
+        <v>0.1293646063641579</v>
       </c>
       <c r="C76">
-        <v>-0.07999402469098731</v>
+        <v>0.09193325853562799</v>
       </c>
       <c r="D76">
-        <v>0.07115599752116049</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08272874523152401</v>
+      </c>
+      <c r="E76">
+        <v>0.0679854700825781</v>
+      </c>
+      <c r="F76">
+        <v>-0.007603390468816629</v>
+      </c>
+      <c r="G76">
+        <v>-0.03725215679224345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07771755849092409</v>
+        <v>0.0637504204573672</v>
       </c>
       <c r="C77">
-        <v>-0.05222813578652594</v>
+        <v>0.06214198318234292</v>
       </c>
       <c r="D77">
-        <v>-0.04826641816944469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04785287475561685</v>
+      </c>
+      <c r="E77">
+        <v>0.0981906980873727</v>
+      </c>
+      <c r="F77">
+        <v>-0.177130480608425</v>
+      </c>
+      <c r="G77">
+        <v>0.0886765332177445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04835940961800018</v>
+        <v>0.04561785826478777</v>
       </c>
       <c r="C78">
-        <v>-0.04669247904362267</v>
+        <v>0.0558845661689191</v>
       </c>
       <c r="D78">
-        <v>-0.02255269570448942</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05581644655248826</v>
+      </c>
+      <c r="E78">
+        <v>0.05666880759430297</v>
+      </c>
+      <c r="F78">
+        <v>-0.0614749874212801</v>
+      </c>
+      <c r="G78">
+        <v>-0.0666125184252202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03075675850892363</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04501553230339908</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07947793110093383</v>
+      </c>
+      <c r="E79">
+        <v>0.0608240229036489</v>
+      </c>
+      <c r="F79">
+        <v>0.02322645910264712</v>
+      </c>
+      <c r="G79">
+        <v>-0.03743989874613438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03927241076858027</v>
+        <v>0.03025732277228669</v>
       </c>
       <c r="C80">
-        <v>-0.04872897217736051</v>
+        <v>0.04982580548310119</v>
       </c>
       <c r="D80">
-        <v>-0.03154179351863054</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04057059326144456</v>
+      </c>
+      <c r="E80">
+        <v>0.01894182061094425</v>
+      </c>
+      <c r="F80">
+        <v>-0.05292193514731049</v>
+      </c>
+      <c r="G80">
+        <v>-0.0001445455709251997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1412055633740879</v>
+        <v>0.1413490010709436</v>
       </c>
       <c r="C81">
-        <v>-0.07318585889303789</v>
+        <v>0.09210804281274641</v>
       </c>
       <c r="D81">
-        <v>0.1004960411269411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1257693861941067</v>
+      </c>
+      <c r="E81">
+        <v>0.0671541537247814</v>
+      </c>
+      <c r="F81">
+        <v>0.03196266496747677</v>
+      </c>
+      <c r="G81">
+        <v>0.008213865281322315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1827931594645016</v>
+        <v>0.2187374650401986</v>
       </c>
       <c r="C82">
-        <v>-0.08567597743286572</v>
+        <v>0.1512956192631221</v>
       </c>
       <c r="D82">
-        <v>0.1835998993400604</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2472429826223926</v>
+      </c>
+      <c r="E82">
+        <v>-0.0278162522332936</v>
+      </c>
+      <c r="F82">
+        <v>-0.04141376150012614</v>
+      </c>
+      <c r="G82">
+        <v>-0.04686818659233322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03931298770180813</v>
+        <v>0.02698087056032154</v>
       </c>
       <c r="C83">
-        <v>-0.03093784710460629</v>
+        <v>0.04327736430936813</v>
       </c>
       <c r="D83">
-        <v>-0.03782937790120419</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03021146353672447</v>
+      </c>
+      <c r="E83">
+        <v>0.02714893660755648</v>
+      </c>
+      <c r="F83">
+        <v>-0.04455122269765332</v>
+      </c>
+      <c r="G83">
+        <v>-0.009357913962775691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004370741313434307</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001424189141752689</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001920643979961199</v>
+      </c>
+      <c r="E84">
+        <v>0.002188408208825337</v>
+      </c>
+      <c r="F84">
+        <v>0.0004770157156958862</v>
+      </c>
+      <c r="G84">
+        <v>-0.002874776373839886</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2219201790113199</v>
+        <v>0.2046981935711512</v>
       </c>
       <c r="C85">
-        <v>-0.09749483869267231</v>
+        <v>0.1136444412139968</v>
       </c>
       <c r="D85">
-        <v>0.1644279917319768</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1277940410937373</v>
+      </c>
+      <c r="E85">
+        <v>-0.01166151451317706</v>
+      </c>
+      <c r="F85">
+        <v>0.1018086896766347</v>
+      </c>
+      <c r="G85">
+        <v>0.01017024765745687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007985270438550263</v>
+        <v>0.01110111911441046</v>
       </c>
       <c r="C86">
-        <v>-0.02595069493827324</v>
+        <v>0.01836087076334604</v>
       </c>
       <c r="D86">
-        <v>-0.04184188981981887</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05467492456225447</v>
+      </c>
+      <c r="E86">
+        <v>0.07802692692258668</v>
+      </c>
+      <c r="F86">
+        <v>-0.09311270386105043</v>
+      </c>
+      <c r="G86">
+        <v>-0.07939828185560101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02443712903085356</v>
+        <v>0.02535485014198934</v>
       </c>
       <c r="C87">
-        <v>-0.005302056516149821</v>
+        <v>0.01293211340636239</v>
       </c>
       <c r="D87">
-        <v>-0.08153856075991248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07699237246259061</v>
+      </c>
+      <c r="E87">
+        <v>0.1255983904165884</v>
+      </c>
+      <c r="F87">
+        <v>-0.08036465055884377</v>
+      </c>
+      <c r="G87">
+        <v>-0.02293128963040575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1090421910967964</v>
+        <v>0.09375955698607204</v>
       </c>
       <c r="C88">
-        <v>-0.07088283342111482</v>
+        <v>0.06096842458399289</v>
       </c>
       <c r="D88">
-        <v>0.0232898414050145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007197450211833116</v>
+      </c>
+      <c r="E88">
+        <v>0.05271567815272683</v>
+      </c>
+      <c r="F88">
+        <v>-0.06459805711934728</v>
+      </c>
+      <c r="G88">
+        <v>-0.04320207343508683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1798882023458006</v>
+        <v>0.21696399200962</v>
       </c>
       <c r="C89">
-        <v>0.3783802082877625</v>
+        <v>-0.3821907919744651</v>
       </c>
       <c r="D89">
-        <v>0.0221613157533204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02273155378344216</v>
+      </c>
+      <c r="E89">
+        <v>0.07258140058018116</v>
+      </c>
+      <c r="F89">
+        <v>-0.1021578023071268</v>
+      </c>
+      <c r="G89">
+        <v>0.0006441509860560652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1745763256018415</v>
+        <v>0.1984163123661578</v>
       </c>
       <c r="C90">
-        <v>0.3380596388592965</v>
+        <v>-0.3128061400267343</v>
       </c>
       <c r="D90">
-        <v>0.0322432160395418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02344603668142517</v>
+      </c>
+      <c r="E90">
+        <v>0.05570290881322897</v>
+      </c>
+      <c r="F90">
+        <v>-0.02948549923324194</v>
+      </c>
+      <c r="G90">
+        <v>-0.01612674966205346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1912825589436095</v>
+        <v>0.1879878718839582</v>
       </c>
       <c r="C91">
-        <v>-0.1251090277594227</v>
+        <v>0.1415447538542325</v>
       </c>
       <c r="D91">
-        <v>0.1234961074001495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1303148048792715</v>
+      </c>
+      <c r="E91">
+        <v>0.04583428367548668</v>
+      </c>
+      <c r="F91">
+        <v>0.01769217990136771</v>
+      </c>
+      <c r="G91">
+        <v>0.004479259340704695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1600737527120482</v>
+        <v>0.1800110029966251</v>
       </c>
       <c r="C92">
-        <v>0.288256899227547</v>
+        <v>-0.2921828211640699</v>
       </c>
       <c r="D92">
-        <v>0.01883011452479446</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01961218606467757</v>
+      </c>
+      <c r="E92">
+        <v>0.06740671937984749</v>
+      </c>
+      <c r="F92">
+        <v>-0.06095883847027475</v>
+      </c>
+      <c r="G92">
+        <v>-0.02796072084621454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1944789049417059</v>
+        <v>0.219251107944756</v>
       </c>
       <c r="C93">
-        <v>0.3403675933818608</v>
+        <v>-0.3210089522284547</v>
       </c>
       <c r="D93">
-        <v>0.03145924165741419</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01924722332970313</v>
+      </c>
+      <c r="E93">
+        <v>0.04331923834248138</v>
+      </c>
+      <c r="F93">
+        <v>-0.004211364698050305</v>
+      </c>
+      <c r="G93">
+        <v>-0.0406806766993013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3410009451517175</v>
+        <v>0.3415932505262603</v>
       </c>
       <c r="C94">
-        <v>-0.1422897845078152</v>
+        <v>0.18296338814557</v>
       </c>
       <c r="D94">
-        <v>0.3504879220353042</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.404209231981146</v>
+      </c>
+      <c r="E94">
+        <v>-0.00209972009607242</v>
+      </c>
+      <c r="F94">
+        <v>0.131454758714356</v>
+      </c>
+      <c r="G94">
+        <v>0.3943780391503946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1175251594893941</v>
+        <v>0.08628692498270114</v>
       </c>
       <c r="C95">
-        <v>-0.06377952842052871</v>
+        <v>0.06101455618497272</v>
       </c>
       <c r="D95">
-        <v>-0.1976157403770686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1985283859477681</v>
+      </c>
+      <c r="E95">
+        <v>-0.09247063313990764</v>
+      </c>
+      <c r="F95">
+        <v>-0.7076628947012461</v>
+      </c>
+      <c r="G95">
+        <v>0.5779977472011566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1941977762278692</v>
+        <v>0.1870812086880207</v>
       </c>
       <c r="C98">
-        <v>-0.01915849198995041</v>
+        <v>0.04597683748359011</v>
       </c>
       <c r="D98">
-        <v>-0.142724960744022</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2009284182803271</v>
+      </c>
+      <c r="E98">
+        <v>-0.1295246210718713</v>
+      </c>
+      <c r="F98">
+        <v>0.07988416193044008</v>
+      </c>
+      <c r="G98">
+        <v>-0.0755313177783021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007204452184436244</v>
+        <v>0.005528772291698931</v>
       </c>
       <c r="C101">
-        <v>-0.03409285784076763</v>
+        <v>0.02926948006449844</v>
       </c>
       <c r="D101">
-        <v>0.01656900073325435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01433693393516779</v>
+      </c>
+      <c r="E101">
+        <v>0.04756609982990353</v>
+      </c>
+      <c r="F101">
+        <v>-0.06819814564538793</v>
+      </c>
+      <c r="G101">
+        <v>-0.08580320256862797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1246760098861114</v>
+        <v>0.1268933680718656</v>
       </c>
       <c r="C102">
-        <v>-0.06720220714861233</v>
+        <v>0.09927754078965617</v>
       </c>
       <c r="D102">
-        <v>0.04988053252287283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05885481171069547</v>
+      </c>
+      <c r="E102">
+        <v>-0.01313787505423799</v>
+      </c>
+      <c r="F102">
+        <v>-0.02144986168522717</v>
+      </c>
+      <c r="G102">
+        <v>0.01271408152085885</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
